--- a/biology/Botanique/Globularia_cordifolia/Globularia_cordifolia.xlsx
+++ b/biology/Botanique/Globularia_cordifolia/Globularia_cordifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Globularia cordifolia
 La Globulaire à feuilles en cœur (Globularia cordifolia), aussi appelée Globulaire à feuilles cordées, Globulaire à feuilles en forme de cœur ou Veuve-céleste en France, est une espèce de plante vivace appartenant à la famille des Globulariacées ou des Plantaginacées, selon la classification phylogénétique.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante ligneuse et rampante, qui est un sous-arbrisseau[1], développe une inflorescence violette au sommet d'une courte hampe de 5 à 15 cm[2]. La floraison se déroule de mai à juillet[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante ligneuse et rampante, qui est un sous-arbrisseau, développe une inflorescence violette au sommet d'une courte hampe de 5 à 15 cm. La floraison se déroule de mai à juillet.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les régions montagneuses du centre et du Sud de l'Europe accueillent le globulaire à feuilles en cœur[4]. En France, ce sont précisément les Alpes, le Jura et les Pyrénées[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les régions montagneuses du centre et du Sud de l'Europe accueillent le globulaire à feuilles en cœur. En France, ce sont précisément les Alpes, le Jura et les Pyrénées.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Globulaire à feuilles en cœur tapisse les rochers et cailloutis calcaires à des altitudes variant de 200 à 2 200 m[6].
-C'est une espèce protégée en région Midi-Pyrénées (Article 1)[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Globulaire à feuilles en cœur tapisse les rochers et cailloutis calcaires à des altitudes variant de 200 à 2 200 m.
+C'est une espèce protégée en région Midi-Pyrénées (Article 1).
 </t>
         </is>
       </c>
